--- a/Onton_et_al_many_labs_triggers_events_ref_sheet.xlsx
+++ b/Onton_et_al_many_labs_triggers_events_ref_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w11650pm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w11650pm\Downloads\eeglab_current\eeglab2024.2\many_labs_onton_replication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8D93C-0E0E-48C2-B465-B051BAD10ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903E6F6-A5E9-47B0-9B7A-E986D78C00AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE58B13B-8EA2-4868-A1C3-A269A3CAFF20}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
   <si>
     <t>Fixation</t>
   </si>
@@ -225,15 +225,6 @@
     <t>s85</t>
   </si>
   <si>
-    <t>Reclass Events - Accumulated Memory Load</t>
-  </si>
-  <si>
-    <t>Reclass Events - Accumulated Ignore Load</t>
-  </si>
-  <si>
-    <t>Reclass Events - Memory Load</t>
-  </si>
-  <si>
     <t>L3_Maintenance</t>
   </si>
   <si>
@@ -322,6 +313,12 @@
   </si>
   <si>
     <t xml:space="preserve">Below is how psychopy labels events </t>
+  </si>
+  <si>
+    <t>MainLoad</t>
+  </si>
+  <si>
+    <t>AccLoad</t>
   </si>
 </sst>
 </file>
@@ -711,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D2DE98-20FF-401B-82B4-F8AE77862882}">
-  <dimension ref="C4:P32"/>
+  <dimension ref="C2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,500 +729,596 @@
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>12</v>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J21" t="s">
         <v>74</v>
       </c>
-      <c r="K21" t="s">
-        <v>74</v>
+      <c r="K21" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>31</v>
@@ -1241,38 +1334,38 @@
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>31</v>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>31</v>
@@ -1283,276 +1376,6 @@
       <c r="P22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1572,77 +1395,77 @@
   <sheetData>
     <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
